--- a/Test_data.xlsx
+++ b/Test_data.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -49,7 +50,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,10 +413,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -485,47 +486,47 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>qweqeq</t>
+          <t>hsdfh</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>qweqwe</t>
+          <t>qhgfawgf</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>asdad</t>
+          <t>hgfwhf</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ergeherhg</t>
+          <t xml:space="preserve">ftqsf </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>bhdhqwh</t>
+          <t>qfw</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>hhgdhf</t>
+          <t>q</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>hgfqhgfshf</t>
+          <t>yf</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>hgfafdgh</t>
+          <t>uqe</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>hwgdhqd</t>
+          <t>utqe</t>
         </is>
       </c>
     </row>
@@ -537,47 +538,99 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jgjdjh</t>
+          <t>ghfaghfdyq</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>`gqwgeytq</t>
+          <t>qyit</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1fqwfgqf</t>
+          <t>qdtiq</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>vgvqev</t>
+          <t>it</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>hhgfgshh</t>
+          <t>qe</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>hbhhh</t>
+          <t>qdeyqedqoqe</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>hdgsdgg</t>
+          <t>to</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>ffdg</t>
+          <t>qe</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bbhe</t>
+          <t>qteq</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>wdqwdqwqw</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>wereewt</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>bashgdgf</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>fgqwgf</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>fg</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>fg</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>qgf</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>qfg</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>qfge</t>
         </is>
       </c>
     </row>

--- a/Test_data.xlsx
+++ b/Test_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,6 +634,162 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>yooo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>qhgfawgf</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>hgfwhf</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ftqsf </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>qfw</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>yf</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>uqe</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>utqe</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ghfaghfdyq</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>qyit</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>qdtiq</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>qe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>qdeyqedqoqe</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>qe</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>qteq</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>wdqwdqwqw</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>wereewt</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>bashgdgf</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>fgqwgf</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>fg</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>fg</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>qgf</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>qfg</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>qfge</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
